--- a/data/baseline_projections_4_2021.xlsx
+++ b/data/baseline_projections_4_2021.xlsx
@@ -674,133 +674,133 @@
         <v>170.207</v>
       </c>
       <c r="F2" t="n">
-        <v>164.137</v>
+        <v>171.237</v>
       </c>
       <c r="G2" t="n">
-        <v>168.283382790221</v>
+        <v>175.56274099593</v>
       </c>
       <c r="H2" t="n">
-        <v>172.429765580442</v>
+        <v>179.888481991861</v>
       </c>
       <c r="I2" t="n">
-        <v>173.014858331521</v>
+        <v>180.498883835544</v>
       </c>
       <c r="J2" t="n">
-        <v>173.599951082601</v>
+        <v>181.109285679227</v>
       </c>
       <c r="K2" t="n">
-        <v>174.18504383368</v>
+        <v>181.71968752291</v>
       </c>
       <c r="L2" t="n">
-        <v>174.77013658476</v>
+        <v>182.330089366593</v>
       </c>
       <c r="M2" t="n">
-        <v>172.877019487331</v>
+        <v>180.35508255879</v>
       </c>
       <c r="N2" t="n">
-        <v>170.983902389902</v>
+        <v>178.380075750986</v>
       </c>
       <c r="O2" t="n">
-        <v>169.090785292473</v>
+        <v>176.405068943183</v>
       </c>
       <c r="P2" t="n">
-        <v>167.197668195044</v>
+        <v>174.430062135379</v>
       </c>
       <c r="Q2" t="n">
-        <v>168.186504687646</v>
+        <v>175.461672281072</v>
       </c>
       <c r="R2" t="n">
-        <v>169.175341180247</v>
+        <v>176.493282426765</v>
       </c>
       <c r="S2" t="n">
-        <v>170.164177672848</v>
+        <v>177.524892572458</v>
       </c>
       <c r="T2" t="n">
-        <v>171.15301416545</v>
+        <v>178.556502718151</v>
       </c>
       <c r="U2" t="n">
-        <v>173.696489262009</v>
+        <v>181.209999767016</v>
       </c>
       <c r="V2" t="n">
-        <v>176.239964358568</v>
+        <v>183.86349681588</v>
       </c>
       <c r="W2" t="n">
-        <v>178.783439455127</v>
+        <v>186.516993864745</v>
       </c>
       <c r="X2" t="n">
-        <v>181.326914551686</v>
+        <v>189.170490913609</v>
       </c>
       <c r="Y2" t="n">
-        <v>183.85985203007</v>
+        <v>191.812994523314</v>
       </c>
       <c r="Z2" t="n">
-        <v>186.392789508455</v>
+        <v>194.455498133018</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.925726986839</v>
+        <v>197.098001742723</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.458664465223</v>
+        <v>199.740505352428</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.362543099521</v>
+        <v>202.769995751918</v>
       </c>
       <c r="AD2" t="n">
-        <v>197.266421733818</v>
+        <v>205.799486151409</v>
       </c>
       <c r="AE2" t="n">
-        <v>200.170300368115</v>
+        <v>208.828976550899</v>
       </c>
       <c r="AF2" t="n">
-        <v>203.074179002413</v>
+        <v>211.85846695039</v>
       </c>
       <c r="AG2" t="n">
-        <v>206.00159731602</v>
+        <v>214.912515274456</v>
       </c>
       <c r="AH2" t="n">
-        <v>208.929015629627</v>
+        <v>217.966563598521</v>
       </c>
       <c r="AI2" t="n">
-        <v>211.856433943235</v>
+        <v>221.020611922587</v>
       </c>
       <c r="AJ2" t="n">
-        <v>214.783852256842</v>
+        <v>224.074660246653</v>
       </c>
       <c r="AK2" t="n">
-        <v>217.808743538567</v>
+        <v>227.230397882949</v>
       </c>
       <c r="AL2" t="n">
-        <v>220.833634820291</v>
+        <v>230.386135519244</v>
       </c>
       <c r="AM2" t="n">
-        <v>223.858526102016</v>
+        <v>233.54187315554</v>
       </c>
       <c r="AN2" t="n">
-        <v>226.883417383741</v>
+        <v>236.697610791836</v>
       </c>
       <c r="AO2" t="n">
-        <v>230.074955998053</v>
+        <v>240.027204349042</v>
       </c>
       <c r="AP2" t="n">
-        <v>233.266494612366</v>
+        <v>243.356797906247</v>
       </c>
       <c r="AQ2" t="n">
-        <v>236.458033226678</v>
+        <v>246.686391463453</v>
       </c>
       <c r="AR2" t="n">
-        <v>239.649571840991</v>
+        <v>250.015985020658</v>
       </c>
       <c r="AS2" t="n">
-        <v>242.965862257567</v>
+        <v>253.475726712435</v>
       </c>
       <c r="AT2" t="n">
-        <v>246.282152674143</v>
+        <v>256.935468404212</v>
       </c>
       <c r="AU2" t="n">
-        <v>249.598443090719</v>
+        <v>260.39521009599</v>
       </c>
       <c r="AV2" t="n">
-        <v>252.914733507295</v>
+        <v>263.854951787767</v>
       </c>
     </row>
     <row r="3">
@@ -808,145 +808,145 @@
         <v>49</v>
       </c>
       <c r="B3" t="n">
-        <v>186.4</v>
+        <v>143</v>
       </c>
       <c r="C3" t="n">
-        <v>440</v>
+        <v>143.4</v>
       </c>
       <c r="D3" t="n">
-        <v>363.8</v>
+        <v>144.8</v>
       </c>
       <c r="E3" t="n">
-        <v>243.1</v>
+        <v>145.2</v>
       </c>
       <c r="F3" t="n">
-        <v>216.8</v>
+        <v>145.9</v>
       </c>
       <c r="G3" t="n">
-        <v>221.238806677822</v>
+        <v>148.620995113912</v>
       </c>
       <c r="H3" t="n">
-        <v>221.863490042297</v>
+        <v>147.797019737607</v>
       </c>
       <c r="I3" t="n">
-        <v>234.391386330505</v>
+        <v>159.242656111224</v>
       </c>
       <c r="J3" t="n">
-        <v>247.156956010157</v>
+        <v>170.909193879409</v>
       </c>
       <c r="K3" t="n">
-        <v>260.163970550364</v>
+        <v>182.800138368449</v>
       </c>
       <c r="L3" t="n">
-        <v>272.234317646898</v>
+        <v>193.820513614133</v>
       </c>
       <c r="M3" t="n">
-        <v>293.691342591298</v>
+        <v>214.404660294731</v>
       </c>
       <c r="N3" t="n">
-        <v>314.1065864854</v>
+        <v>234.020541720861</v>
       </c>
       <c r="O3" t="n">
-        <v>334.675087133047</v>
+        <v>253.778864967589</v>
       </c>
       <c r="P3" t="n">
-        <v>355.232305136803</v>
+        <v>273.526701757442</v>
       </c>
       <c r="Q3" t="n">
-        <v>364.172832084228</v>
+        <v>281.501353023059</v>
       </c>
       <c r="R3" t="n">
-        <v>373.564432723234</v>
+        <v>289.895246875818</v>
       </c>
       <c r="S3" t="n">
-        <v>383.366100354586</v>
+        <v>298.670270353253</v>
       </c>
       <c r="T3" t="n">
-        <v>392.593674196654</v>
+        <v>306.911712356143</v>
       </c>
       <c r="U3" t="n">
-        <v>394.696322754452</v>
+        <v>308.004386827056</v>
       </c>
       <c r="V3" t="n">
-        <v>396.757964613016</v>
+        <v>309.058948335501</v>
       </c>
       <c r="W3" t="n">
-        <v>398.778599772345</v>
+        <v>310.075396881479</v>
       </c>
       <c r="X3" t="n">
-        <v>400.799234931674</v>
+        <v>311.091845427458</v>
       </c>
       <c r="Y3" t="n">
-        <v>402.863994846369</v>
+        <v>312.152874549787</v>
       </c>
       <c r="Z3" t="n">
-        <v>404.928754761064</v>
+        <v>313.213903672117</v>
       </c>
       <c r="AA3" t="n">
-        <v>407.034521374994</v>
+        <v>314.313045756914</v>
       </c>
       <c r="AB3" t="n">
-        <v>409.140287988924</v>
+        <v>315.412187841712</v>
       </c>
       <c r="AC3" t="n">
-        <v>409.733798744231</v>
+        <v>314.980134697246</v>
       </c>
       <c r="AD3" t="n">
-        <v>410.327309499537</v>
+        <v>314.54808155278</v>
       </c>
       <c r="AE3" t="n">
-        <v>410.961826954079</v>
+        <v>314.154141370781</v>
       </c>
       <c r="AF3" t="n">
-        <v>411.637351107855</v>
+        <v>313.79831415125</v>
       </c>
       <c r="AG3" t="n">
-        <v>412.214306251659</v>
+        <v>313.342899676483</v>
       </c>
       <c r="AH3" t="n">
-        <v>412.791261395463</v>
+        <v>312.887485201714</v>
       </c>
       <c r="AI3" t="n">
-        <v>413.409223238502</v>
+        <v>312.470183689414</v>
       </c>
       <c r="AJ3" t="n">
-        <v>414.027185081541</v>
+        <v>312.052882177113</v>
       </c>
       <c r="AK3" t="n">
-        <v>414.277999636675</v>
+        <v>311.261323296029</v>
       </c>
       <c r="AL3" t="n">
-        <v>414.528814191809</v>
+        <v>310.469764414943</v>
       </c>
       <c r="AM3" t="n">
-        <v>414.779628746943</v>
+        <v>309.678205533858</v>
       </c>
       <c r="AN3" t="n">
-        <v>415.071450001312</v>
+        <v>308.924759615241</v>
       </c>
       <c r="AO3" t="n">
-        <v>414.747472998718</v>
+        <v>307.542519377805</v>
       </c>
       <c r="AP3" t="n">
-        <v>414.464502695359</v>
+        <v>306.198392102836</v>
       </c>
       <c r="AQ3" t="n">
-        <v>414.263545790469</v>
+        <v>304.930490752802</v>
       </c>
       <c r="AR3" t="n">
-        <v>414.144602284049</v>
+        <v>303.738815327704</v>
       </c>
       <c r="AS3" t="n">
-        <v>413.585292007727</v>
+        <v>302.095589326862</v>
       </c>
       <c r="AT3" t="n">
-        <v>413.107995129875</v>
+        <v>300.528589250955</v>
       </c>
       <c r="AU3" t="n">
-        <v>412.753718349726</v>
+        <v>299.07592806245</v>
       </c>
       <c r="AV3" t="n">
-        <v>412.440448268813</v>
+        <v>297.661379836413</v>
       </c>
     </row>
     <row r="4">
@@ -966,133 +966,133 @@
         <v>1907.1</v>
       </c>
       <c r="F4" t="n">
-        <v>1958.3</v>
+        <v>1965.1</v>
       </c>
       <c r="G4" t="n">
-        <v>1978.37510903441</v>
+        <v>1985.24481783359</v>
       </c>
       <c r="H4" t="n">
-        <v>2007.01798781743</v>
+        <v>2013.98715613545</v>
       </c>
       <c r="I4" t="n">
-        <v>2033.69816620826</v>
+        <v>2040.75997876518</v>
       </c>
       <c r="J4" t="n">
-        <v>2058.94440823948</v>
+        <v>2066.09388583537</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.79025806717</v>
+        <v>2087.01212078221</v>
       </c>
       <c r="L4" t="n">
-        <v>2102.16862737919</v>
+        <v>2109.46819673332</v>
       </c>
       <c r="M4" t="n">
-        <v>2124.25124731704</v>
+        <v>2131.62749635026</v>
       </c>
       <c r="N4" t="n">
-        <v>2144.57729521438</v>
+        <v>2152.02412440678</v>
       </c>
       <c r="O4" t="n">
-        <v>2167.32311071855</v>
+        <v>2174.84892247001</v>
       </c>
       <c r="P4" t="n">
-        <v>2191.24296161714</v>
+        <v>2198.85183264763</v>
       </c>
       <c r="Q4" t="n">
-        <v>2215.89770490003</v>
+        <v>2223.5921870495</v>
       </c>
       <c r="R4" t="n">
-        <v>2239.16332233455</v>
+        <v>2246.93859200308</v>
       </c>
       <c r="S4" t="n">
-        <v>2263.83598982193</v>
+        <v>2271.69693284945</v>
       </c>
       <c r="T4" t="n">
-        <v>2288.69686145651</v>
+        <v>2296.64413136301</v>
       </c>
       <c r="U4" t="n">
-        <v>2314.57045064505</v>
+        <v>2322.6075639905</v>
       </c>
       <c r="V4" t="n">
-        <v>2339.87046528976</v>
+        <v>2347.99543039417</v>
       </c>
       <c r="W4" t="n">
-        <v>2365.30491146818</v>
+        <v>2373.51819513155</v>
       </c>
       <c r="X4" t="n">
-        <v>2390.18370730725</v>
+        <v>2398.48338008961</v>
       </c>
       <c r="Y4" t="n">
-        <v>2414.93703371486</v>
+        <v>2423.32265993621</v>
       </c>
       <c r="Z4" t="n">
-        <v>2439.89648847416</v>
+        <v>2448.36878389449</v>
       </c>
       <c r="AA4" t="n">
-        <v>2464.33614130311</v>
+        <v>2472.89330096243</v>
       </c>
       <c r="AB4" t="n">
-        <v>2488.51589316687</v>
+        <v>2497.15701458521</v>
       </c>
       <c r="AC4" t="n">
-        <v>2512.25650202051</v>
+        <v>2520.98006031788</v>
       </c>
       <c r="AD4" t="n">
-        <v>2535.665513091</v>
+        <v>2544.47035682741</v>
       </c>
       <c r="AE4" t="n">
-        <v>2559.08348626373</v>
+        <v>2567.96964655918</v>
       </c>
       <c r="AF4" t="n">
-        <v>2582.83305721961</v>
+        <v>2591.8016855141</v>
       </c>
       <c r="AG4" t="n">
-        <v>2607.09346800361</v>
+        <v>2616.1463381371</v>
       </c>
       <c r="AH4" t="n">
-        <v>2631.76613549099</v>
+        <v>2640.90467898348</v>
       </c>
       <c r="AI4" t="n">
-        <v>2656.77040076153</v>
+        <v>2665.99576905299</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2681.72985552083</v>
+        <v>2691.04189301127</v>
       </c>
       <c r="AK4" t="n">
-        <v>2706.78789340485</v>
+        <v>2716.18694241427</v>
       </c>
       <c r="AL4" t="n">
-        <v>2731.9265902091</v>
+        <v>2741.4129308175</v>
       </c>
       <c r="AM4" t="n">
-        <v>2757.02047650211</v>
+        <v>2766.59395310949</v>
       </c>
       <c r="AN4" t="n">
-        <v>2782.01577967041</v>
+        <v>2791.67604995676</v>
       </c>
       <c r="AO4" t="n">
-        <v>2807.24409749713</v>
+        <v>2816.99197058245</v>
       </c>
       <c r="AP4" t="n">
-        <v>2832.54411214184</v>
+        <v>2842.37983698612</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2858.14883826296</v>
+        <v>2868.0734729462</v>
       </c>
       <c r="AR4" t="n">
-        <v>2884.24648000769</v>
+        <v>2894.26173612987</v>
       </c>
       <c r="AS4" t="n">
-        <v>2910.80118896705</v>
+        <v>2920.90865364814</v>
       </c>
       <c r="AT4" t="n">
-        <v>2937.87569985676</v>
+        <v>2948.07717805674</v>
       </c>
       <c r="AU4" t="n">
-        <v>2965.04879387119</v>
+        <v>2975.34462791007</v>
       </c>
       <c r="AV4" t="n">
-        <v>2992.37424362384</v>
+        <v>3002.76496254159</v>
       </c>
     </row>
     <row r="5">
@@ -1112,133 +1112,133 @@
         <v>95.9</v>
       </c>
       <c r="F5" t="n">
-        <v>95.9</v>
+        <v>96.6</v>
       </c>
       <c r="G5" t="n">
-        <v>96.8830990943165</v>
+        <v>97.5902750001144</v>
       </c>
       <c r="H5" t="n">
-        <v>98.2857708378145</v>
+        <v>99.0031852234919</v>
       </c>
       <c r="I5" t="n">
-        <v>99.592327089502</v>
+        <v>100.319278382126</v>
       </c>
       <c r="J5" t="n">
-        <v>100.82866197731</v>
+        <v>101.564637612181</v>
       </c>
       <c r="K5" t="n">
-        <v>101.849505054712</v>
+        <v>102.592932098907</v>
       </c>
       <c r="L5" t="n">
-        <v>102.94539721476</v>
+        <v>103.696823471802</v>
       </c>
       <c r="M5" t="n">
-        <v>104.026806218508</v>
+        <v>104.786125971928</v>
       </c>
       <c r="N5" t="n">
-        <v>105.022194051504</v>
+        <v>105.788779409544</v>
       </c>
       <c r="O5" t="n">
-        <v>106.136080436046</v>
+        <v>106.910796351638</v>
       </c>
       <c r="P5" t="n">
-        <v>107.307460562265</v>
+        <v>108.090726697756</v>
       </c>
       <c r="Q5" t="n">
-        <v>108.514829137473</v>
+        <v>109.306908182272</v>
       </c>
       <c r="R5" t="n">
-        <v>109.654170766422</v>
+        <v>110.454566173476</v>
       </c>
       <c r="S5" t="n">
-        <v>110.862417108677</v>
+        <v>111.671631832098</v>
       </c>
       <c r="T5" t="n">
-        <v>112.079880004943</v>
+        <v>112.897981318847</v>
       </c>
       <c r="U5" t="n">
-        <v>113.346936739448</v>
+        <v>114.174286642655</v>
       </c>
       <c r="V5" t="n">
-        <v>114.585904928401</v>
+        <v>115.422298395032</v>
       </c>
       <c r="W5" t="n">
-        <v>115.831456370218</v>
+        <v>116.676941453212</v>
       </c>
       <c r="X5" t="n">
-        <v>117.049797033532</v>
+        <v>117.904175114069</v>
       </c>
       <c r="Y5" t="n">
-        <v>118.261993327506</v>
+        <v>119.125219556174</v>
       </c>
       <c r="Z5" t="n">
-        <v>119.484283942538</v>
+        <v>120.356432000513</v>
       </c>
       <c r="AA5" t="n">
-        <v>120.681119313163</v>
+        <v>121.562003395741</v>
       </c>
       <c r="AB5" t="n">
-        <v>121.865227061586</v>
+        <v>122.754754266415</v>
       </c>
       <c r="AC5" t="n">
-        <v>123.02782951732</v>
+        <v>123.925842871461</v>
       </c>
       <c r="AD5" t="n">
-        <v>124.174193282657</v>
+        <v>125.080574255523</v>
       </c>
       <c r="AE5" t="n">
-        <v>125.320995931518</v>
+        <v>126.235747726638</v>
       </c>
       <c r="AF5" t="n">
-        <v>126.484037270776</v>
+        <v>127.407278418738</v>
       </c>
       <c r="AG5" t="n">
-        <v>127.672094970917</v>
+        <v>128.604008072894</v>
       </c>
       <c r="AH5" t="n">
-        <v>128.880341313173</v>
+        <v>129.821073731517</v>
       </c>
       <c r="AI5" t="n">
-        <v>130.104826345826</v>
+        <v>131.054496611124</v>
       </c>
       <c r="AJ5" t="n">
-        <v>131.327116960858</v>
+        <v>132.285709055462</v>
       </c>
       <c r="AK5" t="n">
-        <v>132.554235294656</v>
+        <v>133.521784457391</v>
       </c>
       <c r="AL5" t="n">
-        <v>133.785303580173</v>
+        <v>134.761838642802</v>
       </c>
       <c r="AM5" t="n">
-        <v>135.014177448069</v>
+        <v>135.999682392945</v>
       </c>
       <c r="AN5" t="n">
-        <v>136.238223597198</v>
+        <v>137.232663185498</v>
       </c>
       <c r="AO5" t="n">
-        <v>137.473680717957</v>
+        <v>138.477138241446</v>
       </c>
       <c r="AP5" t="n">
-        <v>138.71264890691</v>
+        <v>139.725149993822</v>
       </c>
       <c r="AQ5" t="n">
-        <v>139.966539135688</v>
+        <v>140.988192706021</v>
       </c>
       <c r="AR5" t="n">
-        <v>141.244567958299</v>
+        <v>142.27555020617</v>
       </c>
       <c r="AS5" t="n">
-        <v>142.544979840647</v>
+        <v>143.585454146054</v>
       </c>
       <c r="AT5" t="n">
-        <v>143.870846967402</v>
+        <v>144.920999135047</v>
       </c>
       <c r="AU5" t="n">
-        <v>145.201541812923</v>
+        <v>146.261407081631</v>
       </c>
       <c r="AV5" t="n">
-        <v>146.539697678357</v>
+        <v>147.609330508126</v>
       </c>
     </row>
     <row r="6">
@@ -1404,133 +1404,133 @@
         <v>1756.2</v>
       </c>
       <c r="F7" t="n">
-        <v>1808.7</v>
+        <v>1805.1</v>
       </c>
       <c r="G7" t="n">
-        <v>1629.35635710433</v>
+        <v>1626.02571860579</v>
       </c>
       <c r="H7" t="n">
-        <v>1501.66528871657</v>
+        <v>1498.53485474677</v>
       </c>
       <c r="I7" t="n">
-        <v>1514.2729452477</v>
+        <v>1511.08765153362</v>
       </c>
       <c r="J7" t="n">
-        <v>1515.61502429495</v>
+        <v>1512.38995417448</v>
       </c>
       <c r="K7" t="n">
-        <v>1509.92641631876</v>
+        <v>1506.67098308902</v>
       </c>
       <c r="L7" t="n">
-        <v>1493.71783405563</v>
+        <v>1490.44612277592</v>
       </c>
       <c r="M7" t="n">
-        <v>1512.96095354688</v>
+        <v>1509.63823634565</v>
       </c>
       <c r="N7" t="n">
-        <v>1522.99399388232</v>
+        <v>1519.632602017</v>
       </c>
       <c r="O7" t="n">
-        <v>1526.52581787499</v>
+        <v>1523.13445574117</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.58327322214</v>
+        <v>1519.17194815658</v>
       </c>
       <c r="Q7" t="n">
-        <v>1530.28560256998</v>
+        <v>1526.85403734435</v>
       </c>
       <c r="R7" t="n">
-        <v>1538.93733506413</v>
+        <v>1535.48425853468</v>
       </c>
       <c r="S7" t="n">
-        <v>1547.19295157664</v>
+        <v>1543.71889409799</v>
       </c>
       <c r="T7" t="n">
-        <v>1555.98083896333</v>
+        <v>1552.4850878848</v>
       </c>
       <c r="U7" t="n">
-        <v>1592.1555871791</v>
+        <v>1588.56945568078</v>
       </c>
       <c r="V7" t="n">
-        <v>1622.72359467839</v>
+        <v>1619.05458955385</v>
       </c>
       <c r="W7" t="n">
-        <v>1646.251758186</v>
+        <v>1642.5093049925</v>
       </c>
       <c r="X7" t="n">
-        <v>1663.41962105019</v>
+        <v>1659.61223551309</v>
       </c>
       <c r="Y7" t="n">
-        <v>1671.43069916609</v>
+        <v>1667.58404447224</v>
       </c>
       <c r="Z7" t="n">
-        <v>1682.14311044728</v>
+        <v>1678.25356981618</v>
       </c>
       <c r="AA7" t="n">
-        <v>1694.66078021027</v>
+        <v>1690.72593660438</v>
       </c>
       <c r="AB7" t="n">
-        <v>1709.3896382183</v>
+        <v>1705.40653110591</v>
       </c>
       <c r="AC7" t="n">
-        <v>1722.37261557663</v>
+        <v>1718.34111239517</v>
       </c>
       <c r="AD7" t="n">
-        <v>1735.04294744297</v>
+        <v>1730.9634667895</v>
       </c>
       <c r="AE7" t="n">
-        <v>1746.49533930811</v>
+        <v>1742.36951186696</v>
       </c>
       <c r="AF7" t="n">
-        <v>1757.18821215652</v>
+        <v>1753.01705483799</v>
       </c>
       <c r="AG7" t="n">
-        <v>1788.95099597448</v>
+        <v>1784.68057949284</v>
       </c>
       <c r="AH7" t="n">
-        <v>1816.71895412573</v>
+        <v>1812.35462710207</v>
       </c>
       <c r="AI7" t="n">
-        <v>1839.6922791598</v>
+        <v>1835.2404610672</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1858.25973323063</v>
+        <v>1853.72632303349</v>
       </c>
       <c r="AK7" t="n">
-        <v>1832.42941895323</v>
+        <v>1827.9445084856</v>
       </c>
       <c r="AL7" t="n">
-        <v>1818.57674932112</v>
+        <v>1814.12430186748</v>
       </c>
       <c r="AM7" t="n">
-        <v>1816.44046526276</v>
+        <v>1812.00479390401</v>
       </c>
       <c r="AN7" t="n">
-        <v>1826.10762207445</v>
+        <v>1821.67292333428</v>
       </c>
       <c r="AO7" t="n">
-        <v>1883.52184010639</v>
+        <v>1878.9537705036</v>
       </c>
       <c r="AP7" t="n">
-        <v>1928.49718495469</v>
+        <v>1923.81239873781</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1962.13885937222</v>
+        <v>1957.35253104793</v>
       </c>
       <c r="AR7" t="n">
-        <v>1983.80104972426</v>
+        <v>1978.92921847087</v>
       </c>
       <c r="AS7" t="n">
-        <v>1944.78850282412</v>
+        <v>1939.9220024118</v>
       </c>
       <c r="AT7" t="n">
-        <v>1906.44859727335</v>
+        <v>1901.58652711119</v>
       </c>
       <c r="AU7" t="n">
-        <v>1870.23933365998</v>
+        <v>1865.37884105868</v>
       </c>
       <c r="AV7" t="n">
-        <v>1835.42182574796</v>
+        <v>1830.56104730358</v>
       </c>
     </row>
     <row r="8">
@@ -1550,133 +1550,133 @@
         <v>609.8</v>
       </c>
       <c r="F8" t="n">
-        <v>402.3</v>
+        <v>402.7</v>
       </c>
       <c r="G8" t="n">
-        <v>404.185381586234</v>
+        <v>404.587256188855</v>
       </c>
       <c r="H8" t="n">
-        <v>406.114081567775</v>
+        <v>406.517873843756</v>
       </c>
       <c r="I8" t="n">
-        <v>408.081974383166</v>
+        <v>408.48772330127</v>
       </c>
       <c r="J8" t="n">
-        <v>410.072557786574</v>
+        <v>410.480285907665</v>
       </c>
       <c r="K8" t="n">
-        <v>412.05076450561</v>
+        <v>412.460459523761</v>
       </c>
       <c r="L8" t="n">
-        <v>413.998029513711</v>
+        <v>414.40966066411</v>
       </c>
       <c r="M8" t="n">
-        <v>415.932917837439</v>
+        <v>416.34647281416</v>
       </c>
       <c r="N8" t="n">
-        <v>417.863680599709</v>
+        <v>418.279155300777</v>
       </c>
       <c r="O8" t="n">
-        <v>419.800631704166</v>
+        <v>420.218032282544</v>
       </c>
       <c r="P8" t="n">
-        <v>421.756147835183</v>
+        <v>422.175492749759</v>
       </c>
       <c r="Q8" t="n">
-        <v>423.73022899276</v>
+        <v>424.151536702422</v>
       </c>
       <c r="R8" t="n">
-        <v>425.716686834711</v>
+        <v>426.139969645384</v>
       </c>
       <c r="S8" t="n">
-        <v>427.699019115204</v>
+        <v>428.124272924913</v>
       </c>
       <c r="T8" t="n">
-        <v>429.687539737884</v>
+        <v>430.114770699592</v>
       </c>
       <c r="U8" t="n">
-        <v>431.680185922022</v>
+        <v>432.109398137703</v>
       </c>
       <c r="V8" t="n">
-        <v>433.67076932543</v>
+        <v>434.101960744098</v>
       </c>
       <c r="W8" t="n">
-        <v>435.636599360092</v>
+        <v>436.069745369896</v>
       </c>
       <c r="X8" t="n">
-        <v>437.587989929651</v>
+        <v>438.023076173678</v>
       </c>
       <c r="Y8" t="n">
-        <v>439.524941034108</v>
+        <v>439.961953155445</v>
       </c>
       <c r="Z8" t="n">
-        <v>441.449515454191</v>
+        <v>441.888441146912</v>
       </c>
       <c r="AA8" t="n">
-        <v>443.355524847714</v>
+        <v>443.796345652932</v>
       </c>
       <c r="AB8" t="n">
-        <v>445.259471460508</v>
+        <v>445.702185327235</v>
       </c>
       <c r="AC8" t="n">
-        <v>447.165480854031</v>
+        <v>447.610089833255</v>
       </c>
       <c r="AD8" t="n">
-        <v>449.073553028283</v>
+        <v>449.520059170991</v>
       </c>
       <c r="AE8" t="n">
-        <v>450.983687983264</v>
+        <v>451.432093340444</v>
       </c>
       <c r="AF8" t="n">
-        <v>452.906199622618</v>
+        <v>453.356516500195</v>
       </c>
       <c r="AG8" t="n">
-        <v>454.832836823431</v>
+        <v>455.285069323379</v>
       </c>
       <c r="AH8" t="n">
-        <v>456.767725147159</v>
+        <v>457.22188147343</v>
       </c>
       <c r="AI8" t="n">
-        <v>458.727366839633</v>
+        <v>459.183471604078</v>
       </c>
       <c r="AJ8" t="n">
-        <v>460.707636339398</v>
+        <v>461.16571005189</v>
       </c>
       <c r="AK8" t="n">
-        <v>462.71059642718</v>
+        <v>463.170661648584</v>
       </c>
       <c r="AL8" t="n">
-        <v>464.732121541522</v>
+        <v>465.194196730726</v>
       </c>
       <c r="AM8" t="n">
-        <v>466.768086120967</v>
+        <v>467.232185634883</v>
       </c>
       <c r="AN8" t="n">
-        <v>468.801987919684</v>
+        <v>469.268109707324</v>
       </c>
       <c r="AO8" t="n">
-        <v>470.831764156942</v>
+        <v>471.299904116332</v>
       </c>
       <c r="AP8" t="n">
-        <v>472.863603174929</v>
+        <v>473.333763357056</v>
       </c>
       <c r="AQ8" t="n">
-        <v>474.895442192916</v>
+        <v>475.367622597781</v>
       </c>
       <c r="AR8" t="n">
-        <v>476.927281210903</v>
+        <v>477.401481838505</v>
       </c>
       <c r="AS8" t="n">
-        <v>478.965308571077</v>
+        <v>479.441535574379</v>
       </c>
       <c r="AT8" t="n">
-        <v>481.00539871198</v>
+        <v>481.483654141969</v>
       </c>
       <c r="AU8" t="n">
-        <v>483.049614414341</v>
+        <v>483.529902372993</v>
       </c>
       <c r="AV8" t="n">
-        <v>485.091767335972</v>
+        <v>485.5740857723</v>
       </c>
     </row>
     <row r="9">
@@ -1696,133 +1696,133 @@
         <v>225.907</v>
       </c>
       <c r="F9" t="n">
-        <v>260.737</v>
+        <v>262.437</v>
       </c>
       <c r="G9" t="n">
-        <v>255.599488400178</v>
+        <v>257.265991927795</v>
       </c>
       <c r="H9" t="n">
-        <v>254.55541346215</v>
+        <v>256.215109642153</v>
       </c>
       <c r="I9" t="n">
-        <v>256.895723804919</v>
+        <v>258.570678761324</v>
       </c>
       <c r="J9" t="n">
-        <v>259.471045924923</v>
+        <v>261.162791929795</v>
       </c>
       <c r="K9" t="n">
-        <v>261.940282456434</v>
+        <v>263.648127833867</v>
       </c>
       <c r="L9" t="n">
-        <v>264.423865163598</v>
+        <v>266.14790345037</v>
       </c>
       <c r="M9" t="n">
-        <v>266.965091987853</v>
+        <v>268.705699022449</v>
       </c>
       <c r="N9" t="n">
-        <v>269.506800937098</v>
+        <v>271.263979862962</v>
       </c>
       <c r="O9" t="n">
-        <v>272.096228962301</v>
+        <v>273.87029090685</v>
       </c>
       <c r="P9" t="n">
-        <v>274.732797275093</v>
+        <v>276.524049592054</v>
       </c>
       <c r="Q9" t="n">
-        <v>277.432993550966</v>
+        <v>279.241851093381</v>
       </c>
       <c r="R9" t="n">
-        <v>280.18660377739</v>
+        <v>282.013414803142</v>
       </c>
       <c r="S9" t="n">
-        <v>282.960279335428</v>
+        <v>284.805174670076</v>
       </c>
       <c r="T9" t="n">
-        <v>285.767879914398</v>
+        <v>287.631080748397</v>
       </c>
       <c r="U9" t="n">
-        <v>288.605994688855</v>
+        <v>290.487699974147</v>
       </c>
       <c r="V9" t="n">
-        <v>291.45669283695</v>
+        <v>293.356984616877</v>
       </c>
       <c r="W9" t="n">
-        <v>294.323494907038</v>
+        <v>296.242478178848</v>
       </c>
       <c r="X9" t="n">
-        <v>297.203923810513</v>
+        <v>299.141687420886</v>
       </c>
       <c r="Y9" t="n">
-        <v>300.107432131589</v>
+        <v>302.064126557864</v>
       </c>
       <c r="Z9" t="n">
-        <v>303.030762397526</v>
+        <v>305.006516878386</v>
       </c>
       <c r="AA9" t="n">
-        <v>305.967327815422</v>
+        <v>307.96222864379</v>
       </c>
       <c r="AB9" t="n">
-        <v>308.933269814786</v>
+        <v>310.947508525384</v>
       </c>
       <c r="AC9" t="n">
-        <v>311.926820319288</v>
+        <v>313.960576919015</v>
       </c>
       <c r="AD9" t="n">
-        <v>314.950577778421</v>
+        <v>317.004049216013</v>
       </c>
       <c r="AE9" t="n">
-        <v>317.999886177502</v>
+        <v>320.073239044574</v>
       </c>
       <c r="AF9" t="n">
-        <v>321.084606981041</v>
+        <v>323.178072165758</v>
       </c>
       <c r="AG9" t="n">
-        <v>324.199186566223</v>
+        <v>326.312958747243</v>
       </c>
       <c r="AH9" t="n">
-        <v>327.329527464365</v>
+        <v>329.463709405131</v>
       </c>
       <c r="AI9" t="n">
-        <v>330.494908211393</v>
+        <v>332.649728371015</v>
       </c>
       <c r="AJ9" t="n">
-        <v>333.692672448234</v>
+        <v>335.868341966415</v>
       </c>
       <c r="AK9" t="n">
-        <v>336.924583469142</v>
+        <v>339.121324982229</v>
       </c>
       <c r="AL9" t="n">
-        <v>340.180414667451</v>
+        <v>342.398384134518</v>
       </c>
       <c r="AM9" t="n">
-        <v>343.464843629149</v>
+        <v>345.704227507039</v>
       </c>
       <c r="AN9" t="n">
-        <v>346.765926319799</v>
+        <v>349.026833190491</v>
       </c>
       <c r="AO9" t="n">
-        <v>350.084684213541</v>
+        <v>352.367229319003</v>
       </c>
       <c r="AP9" t="n">
-        <v>353.423187380293</v>
+        <v>355.72749945931</v>
       </c>
       <c r="AQ9" t="n">
-        <v>356.77995072225</v>
+        <v>359.106148830796</v>
       </c>
       <c r="AR9" t="n">
-        <v>360.155007029485</v>
+        <v>362.503210437325</v>
       </c>
       <c r="AS9" t="n">
-        <v>363.555644240942</v>
+        <v>365.926019735059</v>
       </c>
       <c r="AT9" t="n">
-        <v>366.976275594027</v>
+        <v>369.368953535823</v>
       </c>
       <c r="AU9" t="n">
-        <v>370.423739689291</v>
+        <v>372.838895027704</v>
       </c>
       <c r="AV9" t="n">
-        <v>373.888208238685</v>
+        <v>376.325951842415</v>
       </c>
     </row>
   </sheetData>
